--- a/notreAnalasis.xlsx
+++ b/notreAnalasis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\WhitePaper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7C990072-6DE5-4BBF-B10B-0E3BE6C2920D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101CA17B-3C16-4C74-844C-75E3FDBCF212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notreK" sheetId="1" r:id="rId1"/>
-    <sheet name="Notre" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="NotreD" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Notre" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="NotreD" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId6"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>webNotreDame</t>
   </si>
@@ -48,12 +60,72 @@
   <si>
     <t>time(s)</t>
   </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Sum of Column1</t>
+  </si>
+  <si>
+    <t>Sum of Column2</t>
+  </si>
+  <si>
+    <t>Sum of Column3</t>
+  </si>
+  <si>
+    <t>Sum of Column4</t>
+  </si>
+  <si>
+    <t>Input Size</t>
+  </si>
+  <si>
+    <t>Time(s)</t>
+  </si>
+  <si>
+    <t>Hits</t>
+  </si>
+  <si>
+    <t>PageRank %</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>D Value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +260,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,8 +447,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -485,6 +569,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -530,8 +725,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -577,7 +792,120 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1738,6 +2066,2067 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Threads Vs Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Notre!$O$44:$O$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Notre!$P$44:$P$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3374.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1894.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>566.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAA9-4BAA-82A0-F648B6ADB28C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1281005343"/>
+        <c:axId val="1200223935"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1281005343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1200223935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1200223935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1281005343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Threads Vs Time (k=16348, D=0.2)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Notre!$O$44:$O$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Notre!$P$44:$P$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3374.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1894.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>566.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B67-4486-B5C6-C8B2DA153EFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1281690175"/>
+        <c:axId val="1200221023"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1281690175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1200221023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1200221023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1281690175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Notre!$Q$64:$Q$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7816776482513939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.371740303339128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9567888159288289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-16D9-45D4-8246-D55A6FC3E1B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1280998143"/>
+        <c:axId val="1197705151"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Notre!$O$64:$O$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Notre!$P$64:$P$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>3374.64</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1894.08</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000.86</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>566.52</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-16D9-45D4-8246-D55A6FC3E1B8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1280998143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197705151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1197705151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1280998143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Vs Threads </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(k=16348, D=0.2)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Notre!$O$64:$O$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Notre!$Q$64:$Q$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7816776482513939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.371740303339128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9567888159288289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CF2-4FF1-B26F-0A577CC6D26A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1332058927"/>
+        <c:axId val="1200235999"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1332058927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1200235999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1200235999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1332058927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Effeciency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Threads (k=16384, D=0.2)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3799212598425195E-2"/>
+                  <c:y val="-0.34895158938466025"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Notre!$O$78:$O$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Notre!$R$78:$R$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.89083882412569693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.842935075834782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74459860199110361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD03-48C5-A487-5BFD53301DAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1442779791"/>
+        <c:axId val="756568767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1442779791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756568767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="756568767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1442779791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1818,6 +4207,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2335,6 +4924,2586 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2924,22 +8093,381 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>61631</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>397807</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD4C2BF-BA5E-49A5-B8E0-52A7D762E422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>39218</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>34737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>375395</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>110937</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDADA2E-1A2C-428A-96B2-67D251A28071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>252131</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>588308</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66114</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B1AAA2-2BFE-4EBF-B7BE-F4758CFFF268}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>39219</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>23531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>375396</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>99731</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE48B81B-B63B-452B-8F98-475D6B1F1F0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>45943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>122143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5108FC7E-4B82-48C0-BE7D-202E75427A62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Adam Possing" refreshedDate="43808.871165625002" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="9" xr:uid="{FD835D3B-CAA4-4BB2-855A-58D5C2F29ECD}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table4"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Column1" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="64" maxValue="16384"/>
+    </cacheField>
+    <cacheField name="Column2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="3374.64"/>
+    </cacheField>
+    <cacheField name="Column3" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2" maxValue="1894.08"/>
+    </cacheField>
+    <cacheField name="Column4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.9657100000000001" maxValue="1000.86"/>
+    </cacheField>
+    <cacheField name="Column5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.5495800000000002" maxValue="566.52"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <n v="13.556900000000001"/>
+    <n v="7.7250399999999999"/>
+    <n v="3.9657100000000001"/>
+    <n v="2.5495800000000002"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <n v="26.692900000000002"/>
+    <n v="14.926299999999999"/>
+    <n v="7.8996700000000004"/>
+    <n v="4.5169899999999998"/>
+  </r>
+  <r>
+    <n v="512"/>
+    <n v="108.46"/>
+    <n v="61.368200000000002"/>
+    <n v="33.384"/>
+    <n v="18.988199999999999"/>
+  </r>
+  <r>
+    <n v="1024"/>
+    <n v="211.63200000000001"/>
+    <n v="121.84"/>
+    <n v="62.537700000000001"/>
+    <n v="38.548999999999999"/>
+  </r>
+  <r>
+    <n v="2049"/>
+    <n v="422.63499999999999"/>
+    <n v="242.029"/>
+    <n v="125.39400000000001"/>
+    <n v="72.083699999999993"/>
+  </r>
+  <r>
+    <n v="4096"/>
+    <n v="858.60599999999999"/>
+    <n v="479.56099999999998"/>
+    <n v="247.05099999999999"/>
+    <n v="142.87799999999999"/>
+  </r>
+  <r>
+    <n v="8192"/>
+    <n v="1686.88"/>
+    <n v="956.89499999999998"/>
+    <n v="503.38799999999998"/>
+    <n v="286.07400000000001"/>
+  </r>
+  <r>
+    <n v="16384"/>
+    <n v="3374.64"/>
+    <n v="1894.08"/>
+    <n v="1000.86"/>
+    <n v="566.52"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E685512-E59A-4070-ADDE-08958E4D86B2}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Sum of Column1" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Column2" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Column3" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Column4" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
-  <autoFilter ref="A1:E33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+  <autoFilter ref="A1:E33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E33">
-    <sortCondition descending="1" ref="E1:E33"/>
+    <sortCondition ref="C1:C33"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="threads"/>
-    <tableColumn id="2" name="time(s)"/>
-    <tableColumn id="3" name="K"/>
-    <tableColumn id="4" name="D"/>
-    <tableColumn id="5" name="Speedup" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="threads"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="time(s)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="K"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="D"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Speedup" dataDxfId="6">
       <calculatedColumnFormula>13.5569/Table1[[#This Row],[time(s)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15BE94D5-700C-4DF4-BE02-F29007171B40}" name="Table4" displayName="Table4" ref="T97:X106">
+  <autoFilter ref="T97:X106" xr:uid="{443F7511-C791-4B06-B427-10AA67102231}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3BCAEE69-BF2B-4B80-BF23-30A07AA63159}" name="Column1" totalsRowLabel="Total" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3A00DD6C-ECBA-48C0-B35A-1490B5D3A063}" name="Column2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B3101FBD-90CC-45E6-B751-11341139FF03}" name="Column3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{BC2486F1-25D3-49AC-80EA-9B45224F56AC}" name="Column4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{A4DD7942-8AE6-4297-8445-F8282A7222C2}" name="Column5" totalsRowFunction="sum" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED3284F7-5838-4064-BABB-CFE8C15767DA}" name="Table16" displayName="Table16" ref="O139:S171" totalsRowShown="0">
+  <autoFilter ref="O139:S171" xr:uid="{7F209E52-38EE-4C2E-B7C1-351B71B105A2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O140:S171">
+    <sortCondition ref="Q1:Q33"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{193EEB77-8725-42F0-8253-A6E6217C4D73}" name="threads"/>
+    <tableColumn id="2" xr3:uid="{FBC0FE22-35FC-4162-A9D9-6D7CFB6F9F5C}" name="time(s)"/>
+    <tableColumn id="3" xr3:uid="{D293DC9E-3B19-499E-B93A-1654359659C9}" name="K"/>
+    <tableColumn id="4" xr3:uid="{76CAE18A-E3B4-4D87-A41D-AB633D5E889C}" name="D"/>
+    <tableColumn id="5" xr3:uid="{46836372-DB21-40B4-B18E-2AEE6DD04C1F}" name="Speedup" dataDxfId="0">
+      <calculatedColumnFormula>13.5569/Table16[[#This Row],[time(s)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3242,7 +8770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -5146,16 +10674,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28DF831-9326-4955-B6AD-B49189085024}">
+  <dimension ref="A3:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>32449</v>
+      </c>
+      <c r="B4" s="7">
+        <v>6704.1028000000006</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3780.42454</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1988.4800799999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD171"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA97" sqref="AA97:AD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" customWidth="1"/>
+    <col min="20" max="24" width="11.140625" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5201,20 +10778,20 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>142.87799999999999</v>
+        <v>13.556900000000001</v>
       </c>
       <c r="C2">
-        <v>4096</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>0.2</v>
       </c>
       <c r="E2">
-        <f>858.606/Table1[[#This Row],[time(s)]]</f>
-        <v>6.0093646327636172</v>
+        <f>13.5569/Table1[[#This Row],[time(s)]]</f>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -5243,20 +10820,20 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>566.52</v>
+        <v>7.7250399999999999</v>
       </c>
       <c r="C3">
-        <v>16384</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>0.2</v>
       </c>
       <c r="E3">
-        <f>3374.64/Table1[[#This Row],[time(s)]]</f>
-        <v>5.9567888159288289</v>
+        <f>13.5569/Table1[[#This Row],[time(s)]]</f>
+        <v>1.7549294243136606</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -5285,20 +10862,20 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>4.5169899999999998</v>
+        <v>3.9657100000000001</v>
       </c>
       <c r="C4">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>0.2</v>
       </c>
       <c r="E4">
-        <f>26.6929/Table1[[#This Row],[time(s)]]</f>
-        <v>5.9094441209743662</v>
+        <f>13.5569/Table1[[#This Row],[time(s)]]</f>
+        <v>3.4185303514376999</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -5330,17 +10907,17 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>286.07400000000001</v>
+        <v>2.5495800000000002</v>
       </c>
       <c r="C5">
-        <v>8192</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>0.2</v>
       </c>
       <c r="E5">
-        <f>1686.88/Table1[[#This Row],[time(s)]]</f>
-        <v>5.8966561099575632</v>
+        <f>13.5569/Table1[[#This Row],[time(s)]]</f>
+        <v>5.3173071643172598</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -5369,20 +10946,20 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>72.083699999999993</v>
+        <v>26.692900000000002</v>
       </c>
       <c r="C6">
-        <v>2049</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>0.2</v>
       </c>
       <c r="E6">
-        <f>422.635/Table1[[#This Row],[time(s)]]</f>
-        <v>5.8631146847345521</v>
+        <f>26.6929/Table1[[#This Row],[time(s)]]</f>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -5411,20 +10988,20 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>18.988199999999999</v>
+        <v>14.926299999999999</v>
       </c>
       <c r="C7">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="D7">
         <v>0.2</v>
       </c>
       <c r="E7">
-        <f>108.46/Table1[[#This Row],[time(s)]]</f>
-        <v>5.7119684856911137</v>
+        <f>26.6929/Table1[[#This Row],[time(s)]]</f>
+        <v>1.7883132457474393</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -5453,20 +11030,20 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>38.548999999999999</v>
+        <v>7.8996700000000004</v>
       </c>
       <c r="C8">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="D8">
         <v>0.2</v>
       </c>
       <c r="E8">
-        <f>211.632/Table1[[#This Row],[time(s)]]</f>
-        <v>5.4899478585696126</v>
+        <f>26.6929/Table1[[#This Row],[time(s)]]</f>
+        <v>3.3789892489179927</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -5498,17 +11075,17 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.5495800000000002</v>
+        <v>4.5169899999999998</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D9">
         <v>0.2</v>
       </c>
       <c r="E9">
-        <f>13.5569/Table1[[#This Row],[time(s)]]</f>
-        <v>5.3173071643172598</v>
+        <f>26.6929/Table1[[#This Row],[time(s)]]</f>
+        <v>5.9094441209743662</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -5537,20 +11114,20 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>247.05099999999999</v>
+        <v>108.46</v>
       </c>
       <c r="C10">
-        <v>4096</v>
+        <v>512</v>
       </c>
       <c r="D10">
         <v>0.2</v>
       </c>
       <c r="E10">
-        <f>858.606/Table1[[#This Row],[time(s)]]</f>
-        <v>3.4754200549684073</v>
+        <f>108.46/Table1[[#This Row],[time(s)]]</f>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -5561,20 +11138,20 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>3.9657100000000001</v>
+        <v>61.368200000000002</v>
       </c>
       <c r="C11">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="D11">
         <v>0.2</v>
       </c>
       <c r="E11">
-        <f>13.5569/Table1[[#This Row],[time(s)]]</f>
-        <v>3.4185303514376999</v>
+        <f>108.46/Table1[[#This Row],[time(s)]]</f>
+        <v>1.7673648567173226</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -5588,17 +11165,17 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>62.537700000000001</v>
+        <v>33.384</v>
       </c>
       <c r="C12">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="D12">
         <v>0.2</v>
       </c>
       <c r="E12">
-        <f>211.632/Table1[[#This Row],[time(s)]]</f>
-        <v>3.384070728536547</v>
+        <f>108.46/Table1[[#This Row],[time(s)]]</f>
+        <v>3.248861730170141</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -5609,20 +11186,20 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>7.8996700000000004</v>
+        <v>18.988199999999999</v>
       </c>
       <c r="C13">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="D13">
         <v>0.2</v>
       </c>
       <c r="E13">
-        <f>26.6929/Table1[[#This Row],[time(s)]]</f>
-        <v>3.3789892489179927</v>
+        <f>108.46/Table1[[#This Row],[time(s)]]</f>
+        <v>5.7119684856911137</v>
       </c>
       <c r="H13">
         <v>8</v>
@@ -5633,20 +11210,20 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>1000.86</v>
+        <v>211.63200000000001</v>
       </c>
       <c r="C14">
-        <v>16384</v>
+        <v>1024</v>
       </c>
       <c r="D14">
         <v>0.2</v>
       </c>
       <c r="E14">
-        <f>3374.64/Table1[[#This Row],[time(s)]]</f>
-        <v>3.371740303339128</v>
+        <f>211.632/Table1[[#This Row],[time(s)]]</f>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -5657,20 +11234,20 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>125.39400000000001</v>
+        <v>121.84</v>
       </c>
       <c r="C15">
-        <v>2049</v>
+        <v>1024</v>
       </c>
       <c r="D15">
         <v>0.2</v>
       </c>
       <c r="E15">
-        <f>422.635/Table1[[#This Row],[time(s)]]</f>
-        <v>3.3704563216740833</v>
+        <f>211.632/Table1[[#This Row],[time(s)]]</f>
+        <v>1.7369665134602759</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -5684,17 +11261,17 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>503.38799999999998</v>
+        <v>62.537700000000001</v>
       </c>
       <c r="C16">
-        <v>8192</v>
+        <v>1024</v>
       </c>
       <c r="D16">
         <v>0.2</v>
       </c>
       <c r="E16">
-        <f>1686.88/Table1[[#This Row],[time(s)]]</f>
-        <v>3.3510532630893071</v>
+        <f>211.632/Table1[[#This Row],[time(s)]]</f>
+        <v>3.384070728536547</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -5705,20 +11282,20 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>33.384</v>
+        <v>38.548999999999999</v>
       </c>
       <c r="C17">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D17">
         <v>0.2</v>
       </c>
       <c r="E17">
-        <f>108.46/Table1[[#This Row],[time(s)]]</f>
-        <v>3.248861730170141</v>
+        <f>211.632/Table1[[#This Row],[time(s)]]</f>
+        <v>5.4899478585696126</v>
       </c>
       <c r="H17">
         <v>8</v>
@@ -5729,20 +11306,20 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>479.56099999999998</v>
+        <v>422.63499999999999</v>
       </c>
       <c r="C18">
-        <v>4096</v>
+        <v>2049</v>
       </c>
       <c r="D18">
         <v>0.2</v>
       </c>
       <c r="E18">
-        <f>858.606/Table1[[#This Row],[time(s)]]</f>
-        <v>1.7903999699725375</v>
+        <f>422.635/Table1[[#This Row],[time(s)]]</f>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -5756,17 +11333,17 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>14.926299999999999</v>
+        <v>242.029</v>
       </c>
       <c r="C19">
-        <v>128</v>
+        <v>2049</v>
       </c>
       <c r="D19">
         <v>0.2</v>
       </c>
       <c r="E19">
-        <f>26.6929/Table1[[#This Row],[time(s)]]</f>
-        <v>1.7883132457474393</v>
+        <f>422.635/Table1[[#This Row],[time(s)]]</f>
+        <v>1.7462163625020142</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -5777,20 +11354,20 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>1894.08</v>
+        <v>125.39400000000001</v>
       </c>
       <c r="C20">
-        <v>16384</v>
+        <v>2049</v>
       </c>
       <c r="D20">
         <v>0.2</v>
       </c>
       <c r="E20">
-        <f>3374.64/Table1[[#This Row],[time(s)]]</f>
-        <v>1.7816776482513939</v>
+        <f>422.635/Table1[[#This Row],[time(s)]]</f>
+        <v>3.3704563216740833</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -5801,20 +11378,20 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>61.368200000000002</v>
+        <v>72.083699999999993</v>
       </c>
       <c r="C21">
-        <v>512</v>
+        <v>2049</v>
       </c>
       <c r="D21">
         <v>0.2</v>
       </c>
       <c r="E21">
-        <f>108.46/Table1[[#This Row],[time(s)]]</f>
-        <v>1.7673648567173226</v>
+        <f>422.635/Table1[[#This Row],[time(s)]]</f>
+        <v>5.8631146847345521</v>
       </c>
       <c r="H21">
         <v>8</v>
@@ -5825,20 +11402,20 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>956.89499999999998</v>
+        <v>858.60599999999999</v>
       </c>
       <c r="C22">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="D22">
         <v>0.2</v>
       </c>
       <c r="E22">
-        <f>1686.88/Table1[[#This Row],[time(s)]]</f>
-        <v>1.7628684442911711</v>
+        <f>858.606/Table1[[#This Row],[time(s)]]</f>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -5852,17 +11429,17 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>7.7250399999999999</v>
+        <v>479.56099999999998</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>4096</v>
       </c>
       <c r="D23">
         <v>0.2</v>
       </c>
       <c r="E23">
-        <f>13.5569/Table1[[#This Row],[time(s)]]</f>
-        <v>1.7549294243136606</v>
+        <f>858.606/Table1[[#This Row],[time(s)]]</f>
+        <v>1.7903999699725375</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -5873,20 +11450,20 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>242.029</v>
+        <v>247.05099999999999</v>
       </c>
       <c r="C24">
-        <v>2049</v>
+        <v>4096</v>
       </c>
       <c r="D24">
         <v>0.2</v>
       </c>
       <c r="E24">
-        <f>422.635/Table1[[#This Row],[time(s)]]</f>
-        <v>1.7462163625020142</v>
+        <f>858.606/Table1[[#This Row],[time(s)]]</f>
+        <v>3.4754200549684073</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -5897,20 +11474,20 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B25">
-        <v>121.84</v>
+        <v>142.87799999999999</v>
       </c>
       <c r="C25">
-        <v>1024</v>
+        <v>4096</v>
       </c>
       <c r="D25">
         <v>0.2</v>
       </c>
       <c r="E25">
-        <f>211.632/Table1[[#This Row],[time(s)]]</f>
-        <v>1.7369665134602759</v>
+        <f>858.606/Table1[[#This Row],[time(s)]]</f>
+        <v>6.0093646327636172</v>
       </c>
       <c r="H25">
         <v>8</v>
@@ -5924,16 +11501,16 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>13.556900000000001</v>
+        <v>1686.88</v>
       </c>
       <c r="C26">
-        <v>64</v>
+        <v>8192</v>
       </c>
       <c r="D26">
         <v>0.2</v>
       </c>
       <c r="E26">
-        <f>13.5569/Table1[[#This Row],[time(s)]]</f>
+        <f>1686.88/Table1[[#This Row],[time(s)]]</f>
         <v>1</v>
       </c>
       <c r="H26">
@@ -5945,20 +11522,20 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>26.692900000000002</v>
+        <v>956.89499999999998</v>
       </c>
       <c r="C27">
-        <v>128</v>
+        <v>8192</v>
       </c>
       <c r="D27">
         <v>0.2</v>
       </c>
       <c r="E27">
-        <f>26.6929/Table1[[#This Row],[time(s)]]</f>
-        <v>1</v>
+        <f>1686.88/Table1[[#This Row],[time(s)]]</f>
+        <v>1.7628684442911711</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -5969,20 +11546,20 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>108.46</v>
+        <v>503.38799999999998</v>
       </c>
       <c r="C28">
-        <v>512</v>
+        <v>8192</v>
       </c>
       <c r="D28">
         <v>0.2</v>
       </c>
       <c r="E28">
-        <f>108.46/Table1[[#This Row],[time(s)]]</f>
-        <v>1</v>
+        <f>1686.88/Table1[[#This Row],[time(s)]]</f>
+        <v>3.3510532630893071</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -5993,20 +11570,20 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>211.63200000000001</v>
+        <v>286.07400000000001</v>
       </c>
       <c r="C29">
-        <v>1024</v>
+        <v>8192</v>
       </c>
       <c r="D29">
         <v>0.2</v>
       </c>
       <c r="E29">
-        <f>211.632/Table1[[#This Row],[time(s)]]</f>
-        <v>1</v>
+        <f>1686.88/Table1[[#This Row],[time(s)]]</f>
+        <v>5.8966561099575632</v>
       </c>
       <c r="H29">
         <v>8</v>
@@ -6020,16 +11597,16 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>422.63499999999999</v>
+        <v>3374.64</v>
       </c>
       <c r="C30">
-        <v>2049</v>
+        <v>16384</v>
       </c>
       <c r="D30">
         <v>0.2</v>
       </c>
       <c r="E30">
-        <f>422.635/Table1[[#This Row],[time(s)]]</f>
+        <f>3374.64/Table1[[#This Row],[time(s)]]</f>
         <v>1</v>
       </c>
       <c r="H30">
@@ -6041,20 +11618,20 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>858.60599999999999</v>
+        <v>1894.08</v>
       </c>
       <c r="C31">
-        <v>4096</v>
+        <v>16384</v>
       </c>
       <c r="D31">
         <v>0.2</v>
       </c>
       <c r="E31">
-        <f>858.606/Table1[[#This Row],[time(s)]]</f>
-        <v>1</v>
+        <f>3374.64/Table1[[#This Row],[time(s)]]</f>
+        <v>1.7816776482513939</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -6065,20 +11642,20 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>1686.88</v>
+        <v>1000.86</v>
       </c>
       <c r="C32">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="D32">
         <v>0.2</v>
       </c>
       <c r="E32">
-        <f>1686.88/Table1[[#This Row],[time(s)]]</f>
-        <v>1</v>
+        <f>3374.64/Table1[[#This Row],[time(s)]]</f>
+        <v>3.371740303339128</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -6087,12 +11664,12 @@
         <v>6.6024799999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>3374.64</v>
+        <v>566.52</v>
       </c>
       <c r="C33">
         <v>16384</v>
@@ -6102,7 +11679,7 @@
       </c>
       <c r="E33">
         <f>3374.64/Table1[[#This Row],[time(s)]]</f>
-        <v>1</v>
+        <v>5.9567888159288289</v>
       </c>
       <c r="H33">
         <v>8</v>
@@ -6111,7 +11688,7 @@
         <v>3.9743200000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H34">
         <v>1</v>
       </c>
@@ -6119,7 +11696,7 @@
         <v>21.545000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H35">
         <v>2</v>
       </c>
@@ -6127,7 +11704,7 @@
         <v>12.2996</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H36">
         <v>4</v>
       </c>
@@ -6135,7 +11712,7 @@
         <v>6.7417999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H37">
         <v>8</v>
       </c>
@@ -6143,7 +11720,7 @@
         <v>3.8473600000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H38">
         <v>1</v>
       </c>
@@ -6151,7 +11728,7 @@
         <v>21.069500000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H39">
         <v>2</v>
       </c>
@@ -6159,7 +11736,7 @@
         <v>11.8696</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H40">
         <v>4</v>
       </c>
@@ -6167,7 +11744,7 @@
         <v>6.4719699999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H41">
         <v>8</v>
       </c>
@@ -6175,343 +11752,2439 @@
         <v>3.7943799999999999</v>
       </c>
     </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+      <c r="P44" s="2">
+        <v>3374.64</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O45" s="4">
+        <v>2</v>
+      </c>
+      <c r="P45" s="5">
+        <v>1894.08</v>
+      </c>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="6"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O46" s="1">
+        <v>4</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1000.86</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O47" s="4">
+        <v>8</v>
+      </c>
+      <c r="P47" s="5">
+        <v>566.52</v>
+      </c>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="6"/>
+    </row>
+    <row r="64" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O64" s="1">
+        <v>1</v>
+      </c>
+      <c r="P64" s="2">
+        <v>3374.64</v>
+      </c>
+      <c r="Q64" s="3">
+        <f>3374.64/P64</f>
+        <v>1</v>
+      </c>
+      <c r="R64" s="2"/>
+    </row>
+    <row r="65" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O65" s="4">
+        <v>2</v>
+      </c>
+      <c r="P65" s="5">
+        <v>1894.08</v>
+      </c>
+      <c r="Q65" s="3">
+        <f>3374.64/P65</f>
+        <v>1.7816776482513939</v>
+      </c>
+      <c r="R65" s="5"/>
+    </row>
+    <row r="66" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O66" s="1">
+        <v>4</v>
+      </c>
+      <c r="P66" s="2">
+        <v>1000.86</v>
+      </c>
+      <c r="Q66" s="3">
+        <f>3374.64/P66</f>
+        <v>3.371740303339128</v>
+      </c>
+      <c r="R66" s="2"/>
+    </row>
+    <row r="67" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O67" s="4">
+        <v>8</v>
+      </c>
+      <c r="P67" s="5">
+        <v>566.52</v>
+      </c>
+      <c r="Q67" s="3">
+        <f>3374.64/P67</f>
+        <v>5.9567888159288289</v>
+      </c>
+      <c r="R67" s="5"/>
+    </row>
+    <row r="76" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="R76" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O77" s="1">
+        <v>1</v>
+      </c>
+      <c r="P77" s="2">
+        <v>3374.64</v>
+      </c>
+      <c r="Q77" s="3">
+        <f>3374.64/P77</f>
+        <v>1</v>
+      </c>
+      <c r="R77" s="5">
+        <f>Q77/O77</f>
+        <v>1</v>
+      </c>
+      <c r="S77" s="3"/>
+    </row>
+    <row r="78" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O78" s="4">
+        <v>2</v>
+      </c>
+      <c r="P78" s="5">
+        <v>1894.08</v>
+      </c>
+      <c r="Q78" s="3">
+        <f>3374.64/P78</f>
+        <v>1.7816776482513939</v>
+      </c>
+      <c r="R78" s="5">
+        <f>Q78/O78</f>
+        <v>0.89083882412569693</v>
+      </c>
+      <c r="S78" s="6"/>
+    </row>
+    <row r="79" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O79" s="1">
+        <v>4</v>
+      </c>
+      <c r="P79" s="2">
+        <v>1000.86</v>
+      </c>
+      <c r="Q79" s="3">
+        <f>3374.64/P79</f>
+        <v>3.371740303339128</v>
+      </c>
+      <c r="R79" s="5">
+        <f t="shared" ref="R79:R80" si="0">Q79/O79</f>
+        <v>0.842935075834782</v>
+      </c>
+      <c r="S79" s="3"/>
+    </row>
+    <row r="80" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O80" s="4">
+        <v>8</v>
+      </c>
+      <c r="P80" s="5">
+        <v>566.52</v>
+      </c>
+      <c r="Q80" s="3">
+        <f>3374.64/P80</f>
+        <v>5.9567888159288289</v>
+      </c>
+      <c r="R80" s="5">
+        <f t="shared" si="0"/>
+        <v>0.74459860199110361</v>
+      </c>
+      <c r="S80" s="6"/>
+    </row>
+    <row r="97" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O97" s="1">
+        <v>1</v>
+      </c>
+      <c r="P97" s="2">
+        <v>13.556900000000001</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>64</v>
+      </c>
+      <c r="T97" t="s">
+        <v>9</v>
+      </c>
+      <c r="U97" t="s">
+        <v>10</v>
+      </c>
+      <c r="V97" t="s">
+        <v>11</v>
+      </c>
+      <c r="W97" t="s">
+        <v>12</v>
+      </c>
+      <c r="X97" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA97" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB97" s="9"/>
+      <c r="AC97" s="9"/>
+      <c r="AD97" s="9"/>
+    </row>
+    <row r="98" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O98" s="4">
+        <v>2</v>
+      </c>
+      <c r="P98" s="5">
+        <v>7.7250399999999999</v>
+      </c>
+      <c r="Q98" s="5">
+        <v>64</v>
+      </c>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8">
+        <v>1</v>
+      </c>
+      <c r="V98" s="8">
+        <v>2</v>
+      </c>
+      <c r="W98" s="8">
+        <v>4</v>
+      </c>
+      <c r="X98" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y98" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z98" s="8"/>
+      <c r="AA98" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB98" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC98" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD98" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O99" s="1">
+        <v>4</v>
+      </c>
+      <c r="P99" s="2">
+        <v>3.9657100000000001</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>64</v>
+      </c>
+      <c r="T99" s="8">
+        <v>64</v>
+      </c>
+      <c r="U99" s="8">
+        <v>13.556900000000001</v>
+      </c>
+      <c r="V99" s="8">
+        <v>7.7250399999999999</v>
+      </c>
+      <c r="W99" s="8">
+        <v>3.9657100000000001</v>
+      </c>
+      <c r="X99" s="8">
+        <v>2.5495800000000002</v>
+      </c>
+      <c r="Z99" s="10">
+        <v>64</v>
+      </c>
+      <c r="AA99" s="8">
+        <v>13.556900000000001</v>
+      </c>
+      <c r="AB99" s="8">
+        <v>7.7250399999999999</v>
+      </c>
+      <c r="AC99" s="8">
+        <v>3.9657100000000001</v>
+      </c>
+      <c r="AD99" s="8">
+        <v>2.5495800000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O100" s="4">
+        <v>8</v>
+      </c>
+      <c r="P100" s="5">
+        <v>2.5495800000000002</v>
+      </c>
+      <c r="Q100" s="5">
+        <v>64</v>
+      </c>
+      <c r="T100" s="8">
+        <v>128</v>
+      </c>
+      <c r="U100" s="8">
+        <v>26.692900000000002</v>
+      </c>
+      <c r="V100" s="8">
+        <v>14.926299999999999</v>
+      </c>
+      <c r="W100" s="8">
+        <v>7.8996700000000004</v>
+      </c>
+      <c r="X100" s="8">
+        <v>4.5169899999999998</v>
+      </c>
+      <c r="Z100" s="8">
+        <v>128</v>
+      </c>
+      <c r="AA100" s="8">
+        <v>26.692900000000002</v>
+      </c>
+      <c r="AB100" s="8">
+        <v>14.926299999999999</v>
+      </c>
+      <c r="AC100" s="8">
+        <v>7.8996700000000004</v>
+      </c>
+      <c r="AD100" s="8">
+        <v>4.5169899999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O101" s="1">
+        <v>1</v>
+      </c>
+      <c r="P101" s="2">
+        <v>26.692900000000002</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>128</v>
+      </c>
+      <c r="T101" s="8">
+        <v>512</v>
+      </c>
+      <c r="U101" s="8">
+        <v>108.46</v>
+      </c>
+      <c r="V101" s="8">
+        <v>61.368200000000002</v>
+      </c>
+      <c r="W101" s="8">
+        <v>33.384</v>
+      </c>
+      <c r="X101" s="8">
+        <v>18.988199999999999</v>
+      </c>
+      <c r="Z101" s="8">
+        <v>512</v>
+      </c>
+      <c r="AA101" s="8">
+        <v>108.46</v>
+      </c>
+      <c r="AB101" s="8">
+        <v>61.368200000000002</v>
+      </c>
+      <c r="AC101" s="8">
+        <v>33.384</v>
+      </c>
+      <c r="AD101" s="8">
+        <v>18.988199999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O102" s="4">
+        <v>2</v>
+      </c>
+      <c r="P102" s="5">
+        <v>14.926299999999999</v>
+      </c>
+      <c r="Q102" s="5">
+        <v>128</v>
+      </c>
+      <c r="T102" s="8">
+        <v>1024</v>
+      </c>
+      <c r="U102" s="8">
+        <v>211.63200000000001</v>
+      </c>
+      <c r="V102" s="8">
+        <v>121.84</v>
+      </c>
+      <c r="W102" s="8">
+        <v>62.537700000000001</v>
+      </c>
+      <c r="X102" s="8">
+        <v>38.548999999999999</v>
+      </c>
+      <c r="Z102" s="8">
+        <v>1024</v>
+      </c>
+      <c r="AA102" s="8">
+        <v>211.63200000000001</v>
+      </c>
+      <c r="AB102" s="8">
+        <v>121.84</v>
+      </c>
+      <c r="AC102" s="8">
+        <v>62.537700000000001</v>
+      </c>
+      <c r="AD102" s="8">
+        <v>38.548999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O103" s="1">
+        <v>4</v>
+      </c>
+      <c r="P103" s="2">
+        <v>7.8996700000000004</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>128</v>
+      </c>
+      <c r="T103" s="8">
+        <v>2049</v>
+      </c>
+      <c r="U103" s="8">
+        <v>422.63499999999999</v>
+      </c>
+      <c r="V103" s="8">
+        <v>242.029</v>
+      </c>
+      <c r="W103" s="8">
+        <v>125.39400000000001</v>
+      </c>
+      <c r="X103" s="8">
+        <v>72.083699999999993</v>
+      </c>
+      <c r="Z103" s="8">
+        <v>2049</v>
+      </c>
+      <c r="AA103" s="8">
+        <v>422.63499999999999</v>
+      </c>
+      <c r="AB103" s="8">
+        <v>242.029</v>
+      </c>
+      <c r="AC103" s="8">
+        <v>125.39400000000001</v>
+      </c>
+      <c r="AD103" s="8">
+        <v>72.083699999999993</v>
+      </c>
+    </row>
+    <row r="104" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O104" s="4">
+        <v>8</v>
+      </c>
+      <c r="P104" s="5">
+        <v>4.5169899999999998</v>
+      </c>
+      <c r="Q104" s="5">
+        <v>128</v>
+      </c>
+      <c r="T104" s="8">
+        <v>4096</v>
+      </c>
+      <c r="U104" s="8">
+        <v>858.60599999999999</v>
+      </c>
+      <c r="V104" s="8">
+        <v>479.56099999999998</v>
+      </c>
+      <c r="W104" s="8">
+        <v>247.05099999999999</v>
+      </c>
+      <c r="X104" s="8">
+        <v>142.87799999999999</v>
+      </c>
+      <c r="Z104" s="8">
+        <v>4096</v>
+      </c>
+      <c r="AA104" s="8">
+        <v>858.60599999999999</v>
+      </c>
+      <c r="AB104" s="8">
+        <v>479.56099999999998</v>
+      </c>
+      <c r="AC104" s="8">
+        <v>247.05099999999999</v>
+      </c>
+      <c r="AD104" s="8">
+        <v>142.87799999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O105" s="1">
+        <v>1</v>
+      </c>
+      <c r="P105" s="2">
+        <v>108.46</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>512</v>
+      </c>
+      <c r="T105" s="8">
+        <v>8192</v>
+      </c>
+      <c r="U105" s="8">
+        <v>1686.88</v>
+      </c>
+      <c r="V105" s="8">
+        <v>956.89499999999998</v>
+      </c>
+      <c r="W105" s="8">
+        <v>503.38799999999998</v>
+      </c>
+      <c r="X105" s="8">
+        <v>286.07400000000001</v>
+      </c>
+      <c r="Z105" s="8">
+        <v>8192</v>
+      </c>
+      <c r="AA105" s="8">
+        <v>1686.88</v>
+      </c>
+      <c r="AB105" s="8">
+        <v>956.89499999999998</v>
+      </c>
+      <c r="AC105" s="8">
+        <v>503.38799999999998</v>
+      </c>
+      <c r="AD105" s="8">
+        <v>286.07400000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O106" s="4">
+        <v>2</v>
+      </c>
+      <c r="P106" s="5">
+        <v>61.368200000000002</v>
+      </c>
+      <c r="Q106" s="5">
+        <v>512</v>
+      </c>
+      <c r="T106" s="8">
+        <v>16384</v>
+      </c>
+      <c r="U106" s="8">
+        <v>3374.64</v>
+      </c>
+      <c r="V106" s="8">
+        <v>1894.08</v>
+      </c>
+      <c r="W106" s="8">
+        <v>1000.86</v>
+      </c>
+      <c r="X106" s="8">
+        <v>566.52</v>
+      </c>
+      <c r="Z106" s="8">
+        <v>16384</v>
+      </c>
+      <c r="AA106" s="8">
+        <v>3374.64</v>
+      </c>
+      <c r="AB106" s="8">
+        <v>1894.08</v>
+      </c>
+      <c r="AC106" s="8">
+        <v>1000.86</v>
+      </c>
+      <c r="AD106" s="8">
+        <v>566.52</v>
+      </c>
+    </row>
+    <row r="107" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O107" s="1">
+        <v>4</v>
+      </c>
+      <c r="P107" s="2">
+        <v>33.384</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="108" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O108" s="4">
+        <v>8</v>
+      </c>
+      <c r="P108" s="5">
+        <v>18.988199999999999</v>
+      </c>
+      <c r="Q108" s="5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="109" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O109" s="1">
+        <v>1</v>
+      </c>
+      <c r="P109" s="2">
+        <v>211.63200000000001</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="110" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O110" s="4">
+        <v>2</v>
+      </c>
+      <c r="P110" s="5">
+        <v>121.84</v>
+      </c>
+      <c r="Q110" s="5">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="111" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O111" s="1">
+        <v>4</v>
+      </c>
+      <c r="P111" s="2">
+        <v>62.537700000000001</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="112" spans="15:30" x14ac:dyDescent="0.25">
+      <c r="O112" s="4">
+        <v>8</v>
+      </c>
+      <c r="P112" s="5">
+        <v>38.548999999999999</v>
+      </c>
+      <c r="Q112" s="5">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="113" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O113" s="1">
+        <v>1</v>
+      </c>
+      <c r="P113" s="2">
+        <v>422.63499999999999</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="114" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O114" s="4">
+        <v>2</v>
+      </c>
+      <c r="P114" s="5">
+        <v>242.029</v>
+      </c>
+      <c r="Q114" s="5">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="115" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O115" s="1">
+        <v>4</v>
+      </c>
+      <c r="P115" s="2">
+        <v>125.39400000000001</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="116" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O116" s="4">
+        <v>8</v>
+      </c>
+      <c r="P116" s="5">
+        <v>72.083699999999993</v>
+      </c>
+      <c r="Q116" s="5">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="117" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O117" s="1">
+        <v>1</v>
+      </c>
+      <c r="P117" s="2">
+        <v>858.60599999999999</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="118" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O118" s="4">
+        <v>2</v>
+      </c>
+      <c r="P118" s="5">
+        <v>479.56099999999998</v>
+      </c>
+      <c r="Q118" s="5">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="119" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O119" s="1">
+        <v>4</v>
+      </c>
+      <c r="P119" s="2">
+        <v>247.05099999999999</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="120" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O120" s="4">
+        <v>8</v>
+      </c>
+      <c r="P120" s="5">
+        <v>142.87799999999999</v>
+      </c>
+      <c r="Q120" s="5">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="121" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O121" s="1">
+        <v>1</v>
+      </c>
+      <c r="P121" s="2">
+        <v>1686.88</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="122" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O122" s="4">
+        <v>2</v>
+      </c>
+      <c r="P122" s="5">
+        <v>956.89499999999998</v>
+      </c>
+      <c r="Q122" s="5">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="123" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O123" s="1">
+        <v>4</v>
+      </c>
+      <c r="P123" s="2">
+        <v>503.38799999999998</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="124" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O124" s="4">
+        <v>8</v>
+      </c>
+      <c r="P124" s="5">
+        <v>286.07400000000001</v>
+      </c>
+      <c r="Q124" s="5">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="125" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O125" s="1">
+        <v>1</v>
+      </c>
+      <c r="P125" s="2">
+        <v>3374.64</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="126" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O126" s="4">
+        <v>2</v>
+      </c>
+      <c r="P126" s="5">
+        <v>1894.08</v>
+      </c>
+      <c r="Q126" s="5">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="127" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O127" s="1">
+        <v>4</v>
+      </c>
+      <c r="P127" s="2">
+        <v>1000.86</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="128" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O128" s="4">
+        <v>8</v>
+      </c>
+      <c r="P128" s="5">
+        <v>566.52</v>
+      </c>
+      <c r="Q128" s="5">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="138" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="U138" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="V138" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="W138" s="13"/>
+      <c r="X138" s="13"/>
+      <c r="Y138" s="13"/>
+    </row>
+    <row r="139" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O139" t="s">
+        <v>1</v>
+      </c>
+      <c r="P139" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>2</v>
+      </c>
+      <c r="R139" t="s">
+        <v>3</v>
+      </c>
+      <c r="S139" t="s">
+        <v>4</v>
+      </c>
+      <c r="T139" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U139" s="8"/>
+      <c r="V139" s="8">
+        <v>1</v>
+      </c>
+      <c r="W139" s="8">
+        <v>2</v>
+      </c>
+      <c r="X139" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y139" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O140">
+        <v>1</v>
+      </c>
+      <c r="P140">
+        <v>13.556900000000001</v>
+      </c>
+      <c r="Q140">
+        <v>64</v>
+      </c>
+      <c r="R140">
+        <v>0.2</v>
+      </c>
+      <c r="S140">
+        <f>13.5569/Table16[[#This Row],[time(s)]]</f>
+        <v>1</v>
+      </c>
+      <c r="U140" s="8">
+        <v>64</v>
+      </c>
+      <c r="V140" s="8">
+        <v>1</v>
+      </c>
+      <c r="W140" s="8">
+        <v>1.7549294243136606</v>
+      </c>
+      <c r="X140" s="8">
+        <v>3.4185303514376999</v>
+      </c>
+      <c r="Y140" s="8">
+        <v>5.3173071643172598</v>
+      </c>
+    </row>
+    <row r="141" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O141">
+        <v>2</v>
+      </c>
+      <c r="P141">
+        <v>7.7250399999999999</v>
+      </c>
+      <c r="Q141">
+        <v>64</v>
+      </c>
+      <c r="R141">
+        <v>0.2</v>
+      </c>
+      <c r="S141">
+        <f>13.5569/Table16[[#This Row],[time(s)]]</f>
+        <v>1.7549294243136606</v>
+      </c>
+      <c r="U141" s="8">
+        <v>128</v>
+      </c>
+      <c r="V141" s="8">
+        <v>1</v>
+      </c>
+      <c r="W141" s="8">
+        <v>1.7883132457474393</v>
+      </c>
+      <c r="X141" s="8">
+        <v>3.3789892489179927</v>
+      </c>
+      <c r="Y141" s="8">
+        <v>5.9094441209743662</v>
+      </c>
+    </row>
+    <row r="142" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O142">
+        <v>4</v>
+      </c>
+      <c r="P142">
+        <v>3.9657100000000001</v>
+      </c>
+      <c r="Q142">
+        <v>64</v>
+      </c>
+      <c r="R142">
+        <v>0.2</v>
+      </c>
+      <c r="S142">
+        <f>13.5569/Table16[[#This Row],[time(s)]]</f>
+        <v>3.4185303514376999</v>
+      </c>
+      <c r="U142" s="8">
+        <v>512</v>
+      </c>
+      <c r="V142" s="8">
+        <v>1</v>
+      </c>
+      <c r="W142" s="8">
+        <v>1.7673648567173226</v>
+      </c>
+      <c r="X142" s="8">
+        <v>3.248861730170141</v>
+      </c>
+      <c r="Y142" s="8">
+        <v>5.7119684856911137</v>
+      </c>
+    </row>
+    <row r="143" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O143">
+        <v>8</v>
+      </c>
+      <c r="P143">
+        <v>2.5495800000000002</v>
+      </c>
+      <c r="Q143">
+        <v>64</v>
+      </c>
+      <c r="R143">
+        <v>0.2</v>
+      </c>
+      <c r="S143">
+        <f>13.5569/Table16[[#This Row],[time(s)]]</f>
+        <v>5.3173071643172598</v>
+      </c>
+      <c r="U143" s="8">
+        <v>1024</v>
+      </c>
+      <c r="V143" s="8">
+        <v>1</v>
+      </c>
+      <c r="W143" s="8">
+        <v>1.7369665134602759</v>
+      </c>
+      <c r="X143" s="8">
+        <v>3.384070728536547</v>
+      </c>
+      <c r="Y143" s="8">
+        <v>5.4899478585696126</v>
+      </c>
+    </row>
+    <row r="144" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O144">
+        <v>1</v>
+      </c>
+      <c r="P144">
+        <v>26.692900000000002</v>
+      </c>
+      <c r="Q144">
+        <v>128</v>
+      </c>
+      <c r="R144">
+        <v>0.2</v>
+      </c>
+      <c r="S144">
+        <f>26.6929/Table16[[#This Row],[time(s)]]</f>
+        <v>1</v>
+      </c>
+      <c r="U144" s="8">
+        <v>2049</v>
+      </c>
+      <c r="V144" s="8">
+        <v>1</v>
+      </c>
+      <c r="W144" s="8">
+        <v>1.7462163625020142</v>
+      </c>
+      <c r="X144" s="8">
+        <v>3.3704563216740833</v>
+      </c>
+      <c r="Y144" s="8">
+        <v>5.8631146847345521</v>
+      </c>
+    </row>
+    <row r="145" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O145">
+        <v>2</v>
+      </c>
+      <c r="P145">
+        <v>14.926299999999999</v>
+      </c>
+      <c r="Q145">
+        <v>128</v>
+      </c>
+      <c r="R145">
+        <v>0.2</v>
+      </c>
+      <c r="S145">
+        <f>26.6929/Table16[[#This Row],[time(s)]]</f>
+        <v>1.7883132457474393</v>
+      </c>
+      <c r="U145" s="8">
+        <v>4096</v>
+      </c>
+      <c r="V145" s="8">
+        <v>1</v>
+      </c>
+      <c r="W145" s="8">
+        <v>1.7903999699725375</v>
+      </c>
+      <c r="X145" s="8">
+        <v>3.4754200549684073</v>
+      </c>
+      <c r="Y145" s="8">
+        <v>6.0093646327636172</v>
+      </c>
+    </row>
+    <row r="146" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O146">
+        <v>4</v>
+      </c>
+      <c r="P146">
+        <v>7.8996700000000004</v>
+      </c>
+      <c r="Q146">
+        <v>128</v>
+      </c>
+      <c r="R146">
+        <v>0.2</v>
+      </c>
+      <c r="S146">
+        <f>26.6929/Table16[[#This Row],[time(s)]]</f>
+        <v>3.3789892489179927</v>
+      </c>
+      <c r="U146" s="8">
+        <v>8192</v>
+      </c>
+      <c r="V146" s="8">
+        <v>1</v>
+      </c>
+      <c r="W146" s="8">
+        <v>1.7628684442911711</v>
+      </c>
+      <c r="X146" s="8">
+        <v>3.3510532630893071</v>
+      </c>
+      <c r="Y146" s="8">
+        <v>5.8966561099575632</v>
+      </c>
+    </row>
+    <row r="147" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O147">
+        <v>8</v>
+      </c>
+      <c r="P147">
+        <v>4.5169899999999998</v>
+      </c>
+      <c r="Q147">
+        <v>128</v>
+      </c>
+      <c r="R147">
+        <v>0.2</v>
+      </c>
+      <c r="S147">
+        <f>26.6929/Table16[[#This Row],[time(s)]]</f>
+        <v>5.9094441209743662</v>
+      </c>
+      <c r="U147" s="8">
+        <v>16384</v>
+      </c>
+      <c r="V147" s="8">
+        <v>1</v>
+      </c>
+      <c r="W147" s="8">
+        <v>1.7816776482513939</v>
+      </c>
+      <c r="X147" s="8">
+        <v>3.371740303339128</v>
+      </c>
+      <c r="Y147" s="8">
+        <v>5.9567888159288289</v>
+      </c>
+    </row>
+    <row r="148" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O148">
+        <v>1</v>
+      </c>
+      <c r="P148">
+        <v>108.46</v>
+      </c>
+      <c r="Q148">
+        <v>512</v>
+      </c>
+      <c r="R148">
+        <v>0.2</v>
+      </c>
+      <c r="S148">
+        <f>108.46/Table16[[#This Row],[time(s)]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O149">
+        <v>2</v>
+      </c>
+      <c r="P149">
+        <v>61.368200000000002</v>
+      </c>
+      <c r="Q149">
+        <v>512</v>
+      </c>
+      <c r="R149">
+        <v>0.2</v>
+      </c>
+      <c r="S149">
+        <f>108.46/Table16[[#This Row],[time(s)]]</f>
+        <v>1.7673648567173226</v>
+      </c>
+    </row>
+    <row r="150" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O150">
+        <v>4</v>
+      </c>
+      <c r="P150">
+        <v>33.384</v>
+      </c>
+      <c r="Q150">
+        <v>512</v>
+      </c>
+      <c r="R150">
+        <v>0.2</v>
+      </c>
+      <c r="S150">
+        <f>108.46/Table16[[#This Row],[time(s)]]</f>
+        <v>3.248861730170141</v>
+      </c>
+    </row>
+    <row r="151" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O151">
+        <v>8</v>
+      </c>
+      <c r="P151">
+        <v>18.988199999999999</v>
+      </c>
+      <c r="Q151">
+        <v>512</v>
+      </c>
+      <c r="R151">
+        <v>0.2</v>
+      </c>
+      <c r="S151">
+        <f>108.46/Table16[[#This Row],[time(s)]]</f>
+        <v>5.7119684856911137</v>
+      </c>
+    </row>
+    <row r="152" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O152">
+        <v>1</v>
+      </c>
+      <c r="P152">
+        <v>211.63200000000001</v>
+      </c>
+      <c r="Q152">
+        <v>1024</v>
+      </c>
+      <c r="R152">
+        <v>0.2</v>
+      </c>
+      <c r="S152">
+        <f>211.632/Table16[[#This Row],[time(s)]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O153">
+        <v>2</v>
+      </c>
+      <c r="P153">
+        <v>121.84</v>
+      </c>
+      <c r="Q153">
+        <v>1024</v>
+      </c>
+      <c r="R153">
+        <v>0.2</v>
+      </c>
+      <c r="S153">
+        <f>211.632/Table16[[#This Row],[time(s)]]</f>
+        <v>1.7369665134602759</v>
+      </c>
+    </row>
+    <row r="154" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O154">
+        <v>4</v>
+      </c>
+      <c r="P154">
+        <v>62.537700000000001</v>
+      </c>
+      <c r="Q154">
+        <v>1024</v>
+      </c>
+      <c r="R154">
+        <v>0.2</v>
+      </c>
+      <c r="S154">
+        <f>211.632/Table16[[#This Row],[time(s)]]</f>
+        <v>3.384070728536547</v>
+      </c>
+    </row>
+    <row r="155" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O155">
+        <v>8</v>
+      </c>
+      <c r="P155">
+        <v>38.548999999999999</v>
+      </c>
+      <c r="Q155">
+        <v>1024</v>
+      </c>
+      <c r="R155">
+        <v>0.2</v>
+      </c>
+      <c r="S155">
+        <f>211.632/Table16[[#This Row],[time(s)]]</f>
+        <v>5.4899478585696126</v>
+      </c>
+    </row>
+    <row r="156" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="P156">
+        <v>422.63499999999999</v>
+      </c>
+      <c r="Q156">
+        <v>2049</v>
+      </c>
+      <c r="R156">
+        <v>0.2</v>
+      </c>
+      <c r="S156">
+        <f>422.635/Table16[[#This Row],[time(s)]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O157">
+        <v>2</v>
+      </c>
+      <c r="P157">
+        <v>242.029</v>
+      </c>
+      <c r="Q157">
+        <v>2049</v>
+      </c>
+      <c r="R157">
+        <v>0.2</v>
+      </c>
+      <c r="S157">
+        <f>422.635/Table16[[#This Row],[time(s)]]</f>
+        <v>1.7462163625020142</v>
+      </c>
+    </row>
+    <row r="158" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O158">
+        <v>4</v>
+      </c>
+      <c r="P158">
+        <v>125.39400000000001</v>
+      </c>
+      <c r="Q158">
+        <v>2049</v>
+      </c>
+      <c r="R158">
+        <v>0.2</v>
+      </c>
+      <c r="S158">
+        <f>422.635/Table16[[#This Row],[time(s)]]</f>
+        <v>3.3704563216740833</v>
+      </c>
+    </row>
+    <row r="159" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O159">
+        <v>8</v>
+      </c>
+      <c r="P159">
+        <v>72.083699999999993</v>
+      </c>
+      <c r="Q159">
+        <v>2049</v>
+      </c>
+      <c r="R159">
+        <v>0.2</v>
+      </c>
+      <c r="S159">
+        <f>422.635/Table16[[#This Row],[time(s)]]</f>
+        <v>5.8631146847345521</v>
+      </c>
+    </row>
+    <row r="160" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O160">
+        <v>1</v>
+      </c>
+      <c r="P160">
+        <v>858.60599999999999</v>
+      </c>
+      <c r="Q160">
+        <v>4096</v>
+      </c>
+      <c r="R160">
+        <v>0.2</v>
+      </c>
+      <c r="S160">
+        <f>858.606/Table16[[#This Row],[time(s)]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O161">
+        <v>2</v>
+      </c>
+      <c r="P161">
+        <v>479.56099999999998</v>
+      </c>
+      <c r="Q161">
+        <v>4096</v>
+      </c>
+      <c r="R161">
+        <v>0.2</v>
+      </c>
+      <c r="S161">
+        <f>858.606/Table16[[#This Row],[time(s)]]</f>
+        <v>1.7903999699725375</v>
+      </c>
+    </row>
+    <row r="162" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O162">
+        <v>4</v>
+      </c>
+      <c r="P162">
+        <v>247.05099999999999</v>
+      </c>
+      <c r="Q162">
+        <v>4096</v>
+      </c>
+      <c r="R162">
+        <v>0.2</v>
+      </c>
+      <c r="S162">
+        <f>858.606/Table16[[#This Row],[time(s)]]</f>
+        <v>3.4754200549684073</v>
+      </c>
+    </row>
+    <row r="163" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O163">
+        <v>8</v>
+      </c>
+      <c r="P163">
+        <v>142.87799999999999</v>
+      </c>
+      <c r="Q163">
+        <v>4096</v>
+      </c>
+      <c r="R163">
+        <v>0.2</v>
+      </c>
+      <c r="S163">
+        <f>858.606/Table16[[#This Row],[time(s)]]</f>
+        <v>6.0093646327636172</v>
+      </c>
+    </row>
+    <row r="164" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O164">
+        <v>1</v>
+      </c>
+      <c r="P164">
+        <v>1686.88</v>
+      </c>
+      <c r="Q164">
+        <v>8192</v>
+      </c>
+      <c r="R164">
+        <v>0.2</v>
+      </c>
+      <c r="S164">
+        <f>1686.88/Table16[[#This Row],[time(s)]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O165">
+        <v>2</v>
+      </c>
+      <c r="P165">
+        <v>956.89499999999998</v>
+      </c>
+      <c r="Q165">
+        <v>8192</v>
+      </c>
+      <c r="R165">
+        <v>0.2</v>
+      </c>
+      <c r="S165">
+        <f>1686.88/Table16[[#This Row],[time(s)]]</f>
+        <v>1.7628684442911711</v>
+      </c>
+    </row>
+    <row r="166" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O166">
+        <v>4</v>
+      </c>
+      <c r="P166">
+        <v>503.38799999999998</v>
+      </c>
+      <c r="Q166">
+        <v>8192</v>
+      </c>
+      <c r="R166">
+        <v>0.2</v>
+      </c>
+      <c r="S166">
+        <f>1686.88/Table16[[#This Row],[time(s)]]</f>
+        <v>3.3510532630893071</v>
+      </c>
+    </row>
+    <row r="167" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O167">
+        <v>8</v>
+      </c>
+      <c r="P167">
+        <v>286.07400000000001</v>
+      </c>
+      <c r="Q167">
+        <v>8192</v>
+      </c>
+      <c r="R167">
+        <v>0.2</v>
+      </c>
+      <c r="S167">
+        <f>1686.88/Table16[[#This Row],[time(s)]]</f>
+        <v>5.8966561099575632</v>
+      </c>
+    </row>
+    <row r="168" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O168">
+        <v>1</v>
+      </c>
+      <c r="P168">
+        <v>3374.64</v>
+      </c>
+      <c r="Q168">
+        <v>16384</v>
+      </c>
+      <c r="R168">
+        <v>0.2</v>
+      </c>
+      <c r="S168">
+        <f>3374.64/Table16[[#This Row],[time(s)]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O169">
+        <v>2</v>
+      </c>
+      <c r="P169">
+        <v>1894.08</v>
+      </c>
+      <c r="Q169">
+        <v>16384</v>
+      </c>
+      <c r="R169">
+        <v>0.2</v>
+      </c>
+      <c r="S169">
+        <f>3374.64/Table16[[#This Row],[time(s)]]</f>
+        <v>1.7816776482513939</v>
+      </c>
+    </row>
+    <row r="170" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O170">
+        <v>4</v>
+      </c>
+      <c r="P170">
+        <v>1000.86</v>
+      </c>
+      <c r="Q170">
+        <v>16384</v>
+      </c>
+      <c r="R170">
+        <v>0.2</v>
+      </c>
+      <c r="S170">
+        <f>3374.64/Table16[[#This Row],[time(s)]]</f>
+        <v>3.371740303339128</v>
+      </c>
+    </row>
+    <row r="171" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O171">
+        <v>8</v>
+      </c>
+      <c r="P171">
+        <v>566.52</v>
+      </c>
+      <c r="Q171">
+        <v>16384</v>
+      </c>
+      <c r="R171">
+        <v>0.2</v>
+      </c>
+      <c r="S171">
+        <f>3374.64/Table16[[#This Row],[time(s)]]</f>
+        <v>5.9567888159288289</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="V138:Y138"/>
+    <mergeCell ref="AA97:AD97"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="A1:B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="9" max="10" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>32824</v>
       </c>
       <c r="B1">
-        <v>23.816299999999998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>459549</v>
+      </c>
+      <c r="C1">
+        <f>B1/(100*325730)</f>
+        <v>1.4108279863690787E-2</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>322516</v>
+      </c>
+      <c r="F1">
+        <v>0.99013899999999999</v>
+      </c>
+      <c r="G1">
+        <v>124802</v>
+      </c>
+      <c r="H1">
+        <v>51390</v>
+      </c>
+      <c r="I1">
+        <v>0.15776999999999999</v>
+      </c>
+      <c r="J1">
+        <v>258</v>
+      </c>
+      <c r="K1">
+        <v>40086</v>
+      </c>
+      <c r="L1">
+        <v>0.12306599999999999</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>39770</v>
+      </c>
+      <c r="O1">
+        <v>0.122096</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>32824</v>
       </c>
       <c r="B2">
-        <v>13.487399999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>439312</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C8" si="0">B2/(100*325730)</f>
+        <v>1.3486998434286065E-2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>302023</v>
+      </c>
+      <c r="F2">
+        <v>0.92722499999999997</v>
+      </c>
+      <c r="G2">
+        <v>124802</v>
+      </c>
+      <c r="H2">
+        <v>49727</v>
+      </c>
+      <c r="I2">
+        <v>0.15266399999999999</v>
+      </c>
+      <c r="J2">
+        <v>258</v>
+      </c>
+      <c r="K2">
+        <v>37181</v>
+      </c>
+      <c r="L2">
+        <v>0.114147</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>37103</v>
+      </c>
+      <c r="O2">
+        <v>0.113908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>32824</v>
       </c>
       <c r="B3">
-        <v>7.3351499999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>412657</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1.2668682651275597E-2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>286032</v>
+      </c>
+      <c r="F3">
+        <v>0.87813099999999999</v>
+      </c>
+      <c r="G3">
+        <v>124802</v>
+      </c>
+      <c r="H3">
+        <v>46718</v>
+      </c>
+      <c r="I3">
+        <v>0.143426</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>35993</v>
+      </c>
+      <c r="L3">
+        <v>0.1105</v>
+      </c>
+      <c r="M3">
+        <v>258</v>
+      </c>
+      <c r="N3">
+        <v>34893</v>
+      </c>
+      <c r="O3">
+        <v>0.107123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
+        <v>32824</v>
       </c>
       <c r="B4">
-        <v>4.1518100000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>394498</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.2111196389647867E-2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>273473</v>
+      </c>
+      <c r="F4">
+        <v>0.83957499999999996</v>
+      </c>
+      <c r="G4">
+        <v>124802</v>
+      </c>
+      <c r="H4">
+        <v>44166</v>
+      </c>
+      <c r="I4">
+        <v>0.13559199999999999</v>
+      </c>
+      <c r="J4">
+        <v>258</v>
+      </c>
+      <c r="K4">
+        <v>36490</v>
+      </c>
+      <c r="L4">
+        <v>0.112026</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>34000</v>
+      </c>
+      <c r="O4">
+        <v>0.104382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>32824</v>
       </c>
       <c r="B5">
-        <v>23.2835</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>368867</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.1324317686427408E-2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>258104</v>
+      </c>
+      <c r="F5">
+        <v>0.79239099999999996</v>
+      </c>
+      <c r="G5">
+        <v>124802</v>
+      </c>
+      <c r="H5">
+        <v>41474</v>
+      </c>
+      <c r="I5">
+        <v>0.127327</v>
+      </c>
+      <c r="J5">
+        <v>258</v>
+      </c>
+      <c r="K5">
+        <v>32669</v>
+      </c>
+      <c r="L5">
+        <v>0.100295</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>31900</v>
+      </c>
+      <c r="O5">
+        <v>9.7934499999999994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>32824</v>
       </c>
       <c r="B6">
-        <v>13.397600000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>231905</v>
+      </c>
+      <c r="C6">
+        <f>B6/(100*325730)</f>
+        <v>7.1195468639670889E-3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>161854</v>
+      </c>
+      <c r="F6">
+        <v>0.49689899999999998</v>
+      </c>
+      <c r="G6">
+        <v>124802</v>
+      </c>
+      <c r="H6">
+        <v>26166</v>
+      </c>
+      <c r="I6">
+        <v>8.0330799999999994E-2</v>
+      </c>
+      <c r="J6">
+        <v>258</v>
+      </c>
+      <c r="K6">
+        <v>20156</v>
+      </c>
+      <c r="L6">
+        <v>6.1879900000000002E-2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>19469</v>
+      </c>
+      <c r="O6">
+        <v>5.9770700000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>32824</v>
       </c>
       <c r="B7">
-        <v>7.2744200000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117422</v>
+      </c>
+      <c r="C7">
+        <f>B7/(100*325730)</f>
+        <v>3.6048874834986033E-3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>79534</v>
+      </c>
+      <c r="F7">
+        <v>0.244173</v>
+      </c>
+      <c r="G7">
+        <v>124802</v>
+      </c>
+      <c r="H7">
+        <v>13479</v>
+      </c>
+      <c r="I7">
+        <v>4.13812E-2</v>
+      </c>
+      <c r="J7">
+        <v>258</v>
+      </c>
+      <c r="K7">
+        <v>10173</v>
+      </c>
+      <c r="L7">
+        <v>3.1231600000000002E-2</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>9669</v>
+      </c>
+      <c r="O7">
+        <v>2.96843E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>325722</v>
       </c>
       <c r="B8">
-        <v>4.0576499999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>22.6328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>12.8398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="C8">
+        <f>B8/(100*325730)</f>
+        <v>6.1093543732539217E-6</v>
+      </c>
+      <c r="D8">
+        <v>325712</v>
+      </c>
+      <c r="E8">
+        <v>199</v>
+      </c>
+      <c r="F8">
+        <v>6.1093900000000001E-4</v>
+      </c>
+      <c r="G8">
+        <v>325711</v>
+      </c>
+      <c r="H8">
+        <v>199</v>
+      </c>
+      <c r="I8">
+        <v>6.1093900000000001E-4</v>
+      </c>
+      <c r="J8">
+        <v>325710</v>
+      </c>
+      <c r="K8">
+        <v>199</v>
+      </c>
+      <c r="L8">
+        <v>6.1093900000000001E-4</v>
+      </c>
+      <c r="M8">
+        <v>325703</v>
+      </c>
+      <c r="N8">
+        <v>199</v>
+      </c>
+      <c r="O8">
+        <v>6.1093900000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>7.0658500000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32824</v>
+      </c>
+      <c r="C11">
+        <v>459549</v>
+      </c>
+      <c r="D11">
+        <f>C11/(100*325730)</f>
+        <v>1.4108279863690787E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>322516</v>
+      </c>
+      <c r="G11">
+        <v>0.99013899999999999</v>
+      </c>
+      <c r="H11">
+        <v>124802</v>
+      </c>
+      <c r="I11">
+        <v>51390</v>
+      </c>
+      <c r="J11">
+        <v>0.15776999999999999</v>
+      </c>
+      <c r="K11">
+        <v>258</v>
+      </c>
+      <c r="L11">
+        <v>40086</v>
+      </c>
+      <c r="M11">
+        <v>0.12306599999999999</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>39770</v>
+      </c>
+      <c r="P11">
+        <v>0.122096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8</v>
+        <v>0.05</v>
       </c>
       <c r="B12">
-        <v>4.0861099999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32824</v>
+      </c>
+      <c r="C12">
+        <v>439312</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D15" si="1">C12/(100*325730)</f>
+        <v>1.3486998434286065E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>302023</v>
+      </c>
+      <c r="G12">
+        <v>0.92722499999999997</v>
+      </c>
+      <c r="H12">
+        <v>124802</v>
+      </c>
+      <c r="I12">
+        <v>49727</v>
+      </c>
+      <c r="J12">
+        <v>0.15266399999999999</v>
+      </c>
+      <c r="K12">
+        <v>258</v>
+      </c>
+      <c r="L12">
+        <v>37181</v>
+      </c>
+      <c r="M12">
+        <v>0.114147</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>37103</v>
+      </c>
+      <c r="P12">
+        <v>0.113908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="B13">
-        <v>22.243300000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32824</v>
+      </c>
+      <c r="C13">
+        <v>412657</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1.2668682651275597E-2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>286032</v>
+      </c>
+      <c r="G13">
+        <v>0.87813099999999999</v>
+      </c>
+      <c r="H13">
+        <v>124802</v>
+      </c>
+      <c r="I13">
+        <v>46718</v>
+      </c>
+      <c r="J13">
+        <v>0.143426</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>35993</v>
+      </c>
+      <c r="M13">
+        <v>0.1105</v>
+      </c>
+      <c r="N13">
+        <v>258</v>
+      </c>
+      <c r="O13">
+        <v>34893</v>
+      </c>
+      <c r="P13">
+        <v>0.107123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>0.15</v>
       </c>
       <c r="B14">
-        <v>12.4876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32824</v>
+      </c>
+      <c r="C14">
+        <v>394498</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>1.2111196389647867E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>273473</v>
+      </c>
+      <c r="G14">
+        <v>0.83957499999999996</v>
+      </c>
+      <c r="H14">
+        <v>124802</v>
+      </c>
+      <c r="I14">
+        <v>44166</v>
+      </c>
+      <c r="J14">
+        <v>0.13559199999999999</v>
+      </c>
+      <c r="K14">
+        <v>258</v>
+      </c>
+      <c r="L14">
+        <v>36490</v>
+      </c>
+      <c r="M14">
+        <v>0.112026</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>34000</v>
+      </c>
+      <c r="P14">
+        <v>0.104382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="B15">
-        <v>6.7479199999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32824</v>
+      </c>
+      <c r="C15">
+        <v>368867</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1.1324317686427408E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>258104</v>
+      </c>
+      <c r="G15">
+        <v>0.79239099999999996</v>
+      </c>
+      <c r="H15">
+        <v>124802</v>
+      </c>
+      <c r="I15">
+        <v>41474</v>
+      </c>
+      <c r="J15">
+        <v>0.127327</v>
+      </c>
+      <c r="K15">
+        <v>258</v>
+      </c>
+      <c r="L15">
+        <v>32669</v>
+      </c>
+      <c r="M15">
+        <v>0.100295</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>31900</v>
+      </c>
+      <c r="P15">
+        <v>9.7934499999999994E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="B16">
-        <v>3.88137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32824</v>
+      </c>
+      <c r="C16">
+        <v>231905</v>
+      </c>
+      <c r="D16">
+        <f>C16/(100*325730)</f>
+        <v>7.1195468639670889E-3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>161854</v>
+      </c>
+      <c r="G16">
+        <v>0.49689899999999998</v>
+      </c>
+      <c r="H16">
+        <v>124802</v>
+      </c>
+      <c r="I16">
+        <v>26166</v>
+      </c>
+      <c r="J16">
+        <v>8.0330799999999994E-2</v>
+      </c>
+      <c r="K16">
+        <v>258</v>
+      </c>
+      <c r="L16">
+        <v>20156</v>
+      </c>
+      <c r="M16">
+        <v>6.1879900000000002E-2</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>19469</v>
+      </c>
+      <c r="P16">
+        <v>5.9770700000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B17">
-        <v>21.705300000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32824</v>
+      </c>
+      <c r="C17">
+        <v>117422</v>
+      </c>
+      <c r="D17">
+        <f>C17/(100*325730)</f>
+        <v>3.6048874834986033E-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>79534</v>
+      </c>
+      <c r="G17">
+        <v>0.244173</v>
+      </c>
+      <c r="H17">
+        <v>124802</v>
+      </c>
+      <c r="I17">
+        <v>13479</v>
+      </c>
+      <c r="J17">
+        <v>4.13812E-2</v>
+      </c>
+      <c r="K17">
+        <v>258</v>
+      </c>
+      <c r="L17">
+        <v>10173</v>
+      </c>
+      <c r="M17">
+        <v>3.1231600000000002E-2</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>9669</v>
+      </c>
+      <c r="P17">
+        <v>2.96843E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>12.3452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>6.7371999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>3.9983300000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>22.851600000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>12.9979</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>6.77135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>4.1699099999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>22.519500000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>12.7281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>6.5701799999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>8</v>
-      </c>
-      <c r="B28">
-        <v>3.9879799999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>22.457599999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>12.5122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>6.6024799999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>8</v>
-      </c>
-      <c r="B32">
-        <v>3.9743200000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>21.545000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34">
-        <v>12.2996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35">
-        <v>6.7417999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36">
-        <v>3.8473600000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>21.069500000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <v>11.8696</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39">
-        <v>6.4719699999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>8</v>
-      </c>
-      <c r="B40">
-        <v>3.7943799999999999</v>
+        <v>325722</v>
+      </c>
+      <c r="C18">
+        <v>199</v>
+      </c>
+      <c r="D18">
+        <f>C18/(100*325730)</f>
+        <v>6.1093543732539217E-6</v>
+      </c>
+      <c r="E18">
+        <v>325712</v>
+      </c>
+      <c r="F18">
+        <v>199</v>
+      </c>
+      <c r="G18">
+        <v>6.1093900000000001E-4</v>
+      </c>
+      <c r="H18">
+        <v>325711</v>
+      </c>
+      <c r="I18">
+        <v>199</v>
+      </c>
+      <c r="J18">
+        <v>6.1093900000000001E-4</v>
+      </c>
+      <c r="K18">
+        <v>325710</v>
+      </c>
+      <c r="L18">
+        <v>199</v>
+      </c>
+      <c r="M18">
+        <v>6.1093900000000001E-4</v>
+      </c>
+      <c r="N18">
+        <v>325703</v>
+      </c>
+      <c r="O18">
+        <v>199</v>
+      </c>
+      <c r="P18">
+        <v>6.1093900000000001E-4</v>
       </c>
     </row>
   </sheetData>
@@ -6519,12 +14192,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A19" activeCellId="39" sqref="A99:XFD99 A97:XFD97 A95:XFD95 A93:XFD93 A89:XFD89 A87:XFD87 A85:XFD85 A83:XFD83 A79:XFD79 A75:XFD75 A77:XFD77 A73:XFD73 A65:XFD65 A67:XFD67 A69:XFD69 A63:XFD63 A59:XFD59 A57:XFD57 A55:XFD55 A53:XFD53 A49:XFD49 A47:XFD47 A45:XFD45 A43:XFD43 A33:XFD33 A35:XFD35 A37:XFD37 A39:XFD39 A23:XFD23 A25:XFD25 A27:XFD27 A29:XFD29 A3:XFD3 A5:XFD5 A7:XFD7 A9:XFD9 A13:XFD13 A15:XFD15 A17:XFD17 A19:XFD19"/>
+    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A94" activeCellId="8" sqref="A14:O14 A24:O24 A34:O34 A44:O44 A54:O54 A64:O64 A74:O74 A84:O84 A94:O94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
